--- a/invites.xlsx
+++ b/invites.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
   <si>
     <t>Nom</t>
   </si>
@@ -26,6 +26,72 @@
   </si>
   <si>
     <t>Adresse Email</t>
+  </si>
+  <si>
+    <t>MIKOLO</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>GABON</t>
+  </si>
+  <si>
+    <t>carlmikolo@gmail.com</t>
+  </si>
+  <si>
+    <t>asseko mve</t>
+  </si>
+  <si>
+    <t>azareel</t>
+  </si>
+  <si>
+    <t>gabon</t>
+  </si>
+  <si>
+    <t>assekoazareel222@gmail.com</t>
+  </si>
+  <si>
+    <t>ASSEKO MVE</t>
+  </si>
+  <si>
+    <t>AKORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamit </t>
+  </si>
+  <si>
+    <t>Hotep</t>
+  </si>
+  <si>
+    <t>pablo</t>
+  </si>
+  <si>
+    <t>escobar</t>
+  </si>
+  <si>
+    <t>asse</t>
+  </si>
+  <si>
+    <t>azaa</t>
+  </si>
+  <si>
+    <t>iyhuihuh</t>
+  </si>
+  <si>
+    <t>yugygyg</t>
+  </si>
+  <si>
+    <t>yhu</t>
+  </si>
+  <si>
+    <t>pologne</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>Oceane Laure</t>
   </si>
 </sst>
 </file>
@@ -402,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -427,84 +493,310 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
       <c r="C4">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5">
         <v>4951291</v>
       </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
       <c r="C6">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
       <c r="C7">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
       <c r="C9">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
       <c r="C10">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
       <c r="C11">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
       <c r="C12">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
       <c r="C13">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
       <c r="C14">
         <v>74951291</v>
       </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
       <c r="C15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
       <c r="C17">
         <v>456415615</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>74951291</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>74951291</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/invites.xlsx
+++ b/invites.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
   <si>
     <t>Nom</t>
   </si>
@@ -92,6 +92,18 @@
   </si>
   <si>
     <t>Oceane Laure</t>
+  </si>
+  <si>
+    <t>isaac</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>gsvxshcvsh</t>
+  </si>
+  <si>
+    <t>hsxsxs</t>
   </si>
 </sst>
 </file>
@@ -468,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -799,6 +811,40 @@
         <v>12</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>74160680</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>74951291</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/invites.xlsx
+++ b/invites.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>Nom</t>
   </si>
@@ -104,6 +104,96 @@
   </si>
   <si>
     <t>hsxsxs</t>
+  </si>
+  <si>
+    <t>ukybvuyhbyuh</t>
+  </si>
+  <si>
+    <t>yuhniunhu</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>ikikhniu</t>
+  </si>
+  <si>
+    <t>_jioo_i_</t>
+  </si>
+  <si>
+    <t>ybbnunun</t>
+  </si>
+  <si>
+    <t>_uj,u_j,yhy</t>
+  </si>
+  <si>
+    <t>ASSEKO</t>
+  </si>
+  <si>
+    <t>s;d,cndjknejn</t>
+  </si>
+  <si>
+    <t>ejkdcnkejdne</t>
+  </si>
+  <si>
+    <t>zefezf</t>
+  </si>
+  <si>
+    <t>pok</t>
+  </si>
+  <si>
+    <t>jbhjbh</t>
+  </si>
+  <si>
+    <t>ui</t>
+  </si>
+  <si>
+    <t>rdrdrd</t>
+  </si>
+  <si>
+    <t>rdrdrdr</t>
+  </si>
+  <si>
+    <t>benin</t>
+  </si>
+  <si>
+    <t>yugyug</t>
+  </si>
+  <si>
+    <t>oijijijiu</t>
+  </si>
+  <si>
+    <t>pouop</t>
+  </si>
+  <si>
+    <t>kljn,kln,</t>
+  </si>
+  <si>
+    <t>k,k,k</t>
+  </si>
+  <si>
+    <t>louis</t>
+  </si>
+  <si>
+    <t>pour</t>
+  </si>
+  <si>
+    <t>louche</t>
+  </si>
+  <si>
+    <t>opopo</t>
+  </si>
+  <si>
+    <t>opopopo</t>
+  </si>
+  <si>
+    <t>pokjh</t>
+  </si>
+  <si>
+    <t>pokhj</t>
+  </si>
+  <si>
+    <t>ass</t>
   </si>
 </sst>
 </file>
@@ -480,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
@@ -845,6 +935,329 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22">
+        <v>74951296</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>74951291</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>741258963</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>74951291</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>74951291</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27">
+        <v>74951291</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>74951291</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29">
+        <v>74951291</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30">
+        <v>74951291</v>
+      </c>
+      <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>74951291</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>74951291</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>74951291</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34">
+        <v>74951291</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>74951291</v>
+      </c>
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>55</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40">
+        <v>1956222222</v>
+      </c>
+      <c r="D40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
